--- a/bots/crawl_ch/output/bread_coop_2023-01-28.xlsx
+++ b/bots/crawl_ch/output/bread_coop_2023-01-28.xlsx
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -648,7 +648,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -867,7 +867,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -940,7 +940,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -1078,7 +1078,7 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -1512,7 +1512,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -1650,7 +1650,7 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -1723,7 +1723,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -1792,7 +1792,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -1934,7 +1934,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -2003,7 +2003,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -2072,7 +2072,7 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -2218,7 +2218,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -2291,7 +2291,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -2433,7 +2433,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -2502,7 +2502,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -2575,7 +2575,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -2644,7 +2644,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -2713,7 +2713,7 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -2786,7 +2786,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -2855,7 +2855,7 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2928,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -3070,7 +3070,7 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -3139,7 +3139,7 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -3208,7 +3208,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -3277,7 +3277,7 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -3350,7 +3350,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -3423,7 +3423,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -3492,7 +3492,7 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -3565,7 +3565,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -3638,7 +3638,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -3711,7 +3711,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -3780,7 +3780,7 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -3853,7 +3853,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -3926,7 +3926,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -3995,7 +3995,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -4141,7 +4141,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -4214,7 +4214,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -4287,7 +4287,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -4360,7 +4360,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -4433,7 +4433,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -4502,7 +4502,7 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -4575,7 +4575,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -4648,7 +4648,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -4721,7 +4721,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -4790,7 +4790,7 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -4863,7 +4863,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -4932,7 +4932,7 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -5005,7 +5005,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -5078,7 +5078,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -5151,7 +5151,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -5224,7 +5224,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -5297,7 +5297,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -5370,7 +5370,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -5443,7 +5443,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -5512,7 +5512,7 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -5581,7 +5581,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -5654,7 +5654,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -5727,7 +5727,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -5800,7 +5800,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -5869,7 +5869,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -5942,7 +5942,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -6011,7 +6011,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -6084,7 +6084,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -6153,7 +6153,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -6226,7 +6226,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -6299,7 +6299,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -6372,7 +6372,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -6441,7 +6441,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -6514,7 +6514,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -6583,7 +6583,7 @@
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -6652,7 +6652,7 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -6725,7 +6725,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -6794,7 +6794,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -6863,7 +6863,7 @@
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -6936,7 +6936,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -7005,7 +7005,7 @@
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -7078,7 +7078,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -7151,7 +7151,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -7224,7 +7224,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -7297,7 +7297,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -7370,7 +7370,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -7443,7 +7443,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -7512,7 +7512,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -7585,7 +7585,7 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -7658,7 +7658,7 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -7727,7 +7727,7 @@
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -7800,7 +7800,7 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -7865,7 +7865,7 @@
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -7938,7 +7938,7 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -8007,7 +8007,7 @@
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -8076,7 +8076,7 @@
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -8145,7 +8145,7 @@
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -8214,7 +8214,7 @@
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -8287,7 +8287,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -8360,7 +8360,7 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -8433,7 +8433,7 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -8502,7 +8502,7 @@
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -8571,7 +8571,7 @@
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -8644,7 +8644,7 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -8713,7 +8713,7 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -8782,7 +8782,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -8855,7 +8855,7 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -8924,7 +8924,7 @@
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -8997,7 +8997,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -9070,7 +9070,7 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -9143,7 +9143,7 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -9212,7 +9212,7 @@
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -9285,7 +9285,7 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -9354,7 +9354,7 @@
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -9427,7 +9427,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -9500,7 +9500,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -9569,7 +9569,7 @@
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -9638,7 +9638,7 @@
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -9711,7 +9711,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -9780,7 +9780,7 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -9853,7 +9853,7 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -9926,7 +9926,7 @@
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -9995,7 +9995,7 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -10064,7 +10064,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -10137,7 +10137,7 @@
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -10206,7 +10206,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -10275,7 +10275,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -10348,7 +10348,7 @@
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -10417,7 +10417,7 @@
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -10490,7 +10490,7 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -10563,7 +10563,7 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -10632,7 +10632,7 @@
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -10695,13 +10695,13 @@
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>Pasquier Milchbrötchen 10St - Online kein Bestand 3.50 Schweizer Franken</t>
+          <t>Pasquier Milchbrötchen 10St 3.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -10774,7 +10774,7 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -10843,7 +10843,7 @@
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -10916,7 +10916,7 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -10985,7 +10985,7 @@
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -11054,7 +11054,7 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -11127,7 +11127,7 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -11196,7 +11196,7 @@
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -11265,7 +11265,7 @@
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -11338,7 +11338,7 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -11407,7 +11407,7 @@
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -11480,7 +11480,7 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -11553,7 +11553,7 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -11622,7 +11622,7 @@
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -11691,7 +11691,7 @@
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -11760,7 +11760,7 @@
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -11833,7 +11833,7 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -11902,7 +11902,7 @@
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -11975,7 +11975,7 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -12044,7 +12044,7 @@
       <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -12113,7 +12113,7 @@
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -12186,7 +12186,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -12259,7 +12259,7 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -12328,7 +12328,7 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -12401,7 +12401,7 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -12474,7 +12474,7 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -12543,7 +12543,7 @@
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -12612,7 +12612,7 @@
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -12685,7 +12685,7 @@
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -12754,7 +12754,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -12823,7 +12823,7 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -12896,7 +12896,7 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -12969,7 +12969,7 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -13042,7 +13042,7 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -13115,7 +13115,7 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -13188,7 +13188,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -13261,7 +13261,7 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -13330,7 +13330,7 @@
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -13399,7 +13399,7 @@
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -13472,7 +13472,7 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -13545,7 +13545,7 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -13614,7 +13614,7 @@
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -13683,7 +13683,7 @@
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -13752,7 +13752,7 @@
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -13821,7 +13821,7 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -13894,7 +13894,7 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -13967,7 +13967,7 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -14036,7 +14036,7 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -14105,7 +14105,7 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -14174,7 +14174,7 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -14247,7 +14247,7 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -14320,7 +14320,7 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -14389,7 +14389,7 @@
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -14462,7 +14462,7 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -14525,13 +14525,13 @@
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>Pasquier Pitch Schokolade 8 Stück - Online kein Bestand 4.50 Schweizer Franken</t>
+          <t>Pasquier Pitch Schokolade 8 Stück 4.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N198" t="inlineStr"/>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -14604,7 +14604,7 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -14673,7 +14673,7 @@
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -14742,7 +14742,7 @@
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -14815,7 +14815,7 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -14888,7 +14888,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -14961,7 +14961,7 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -15034,7 +15034,7 @@
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -15107,7 +15107,7 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -15180,7 +15180,7 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -15249,7 +15249,7 @@
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -15318,7 +15318,7 @@
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -15391,7 +15391,7 @@
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -15460,7 +15460,7 @@
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -15533,7 +15533,7 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -15602,7 +15602,7 @@
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -15675,7 +15675,7 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -15744,7 +15744,7 @@
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -15813,7 +15813,7 @@
       <c r="N216" t="inlineStr"/>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -15886,7 +15886,7 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -15959,7 +15959,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -16028,7 +16028,7 @@
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -16097,7 +16097,7 @@
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -16170,7 +16170,7 @@
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -16243,7 +16243,7 @@
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -16312,7 +16312,7 @@
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -16381,7 +16381,7 @@
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -16454,7 +16454,7 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -16523,7 +16523,7 @@
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -16592,7 +16592,7 @@
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -16661,7 +16661,7 @@
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -16734,7 +16734,7 @@
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -16803,7 +16803,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -16872,7 +16872,7 @@
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -16941,7 +16941,7 @@
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -17010,7 +17010,7 @@
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -17079,7 +17079,7 @@
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -17152,7 +17152,7 @@
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -17221,7 +17221,7 @@
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -17290,7 +17290,7 @@
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -17363,7 +17363,7 @@
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -17432,7 +17432,7 @@
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -17505,7 +17505,7 @@
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -17578,7 +17578,7 @@
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -17647,7 +17647,7 @@
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -17718,7 +17718,7 @@
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -17787,7 +17787,7 @@
       <c r="N244" t="inlineStr"/>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -17856,7 +17856,7 @@
       <c r="N245" t="inlineStr"/>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -17925,7 +17925,7 @@
       <c r="N246" t="inlineStr"/>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -17998,7 +17998,7 @@
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -18067,7 +18067,7 @@
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -18136,7 +18136,7 @@
       <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -18209,7 +18209,7 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -18272,13 +18272,13 @@
       </c>
       <c r="M251" t="inlineStr">
         <is>
-          <t>Pasquier Schokobrötchen 16 Stück - Online kein Bestand 8.50 Schweizer Franken</t>
+          <t>Pasquier Schokobrötchen 16 Stück 8.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -18345,7 +18345,7 @@
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -18414,7 +18414,7 @@
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -18483,7 +18483,7 @@
       <c r="N254" t="inlineStr"/>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -18552,7 +18552,7 @@
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -18621,7 +18621,7 @@
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -18694,7 +18694,7 @@
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -18763,7 +18763,7 @@
       <c r="N258" t="inlineStr"/>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -18832,7 +18832,7 @@
       <c r="N259" t="inlineStr"/>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -18905,7 +18905,7 @@
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -18978,7 +18978,7 @@
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -19047,7 +19047,7 @@
       <c r="N262" t="inlineStr"/>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -19120,7 +19120,7 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -19193,7 +19193,7 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -19266,7 +19266,7 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -19339,7 +19339,7 @@
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -19412,7 +19412,7 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -19485,7 +19485,7 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -19554,7 +19554,7 @@
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -19623,7 +19623,7 @@
       <c r="N270" t="inlineStr"/>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -19696,7 +19696,7 @@
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -19765,7 +19765,7 @@
       <c r="N272" t="inlineStr"/>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -19834,7 +19834,7 @@
       <c r="N273" t="inlineStr"/>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -19903,7 +19903,7 @@
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -19972,7 +19972,7 @@
       <c r="N275" t="inlineStr"/>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -20041,7 +20041,7 @@
       <c r="N276" t="inlineStr"/>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -20114,7 +20114,7 @@
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -20183,7 +20183,7 @@
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -20252,7 +20252,7 @@
       <c r="N279" t="inlineStr"/>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -20325,7 +20325,7 @@
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -20398,7 +20398,7 @@
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -20467,7 +20467,7 @@
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -20536,7 +20536,7 @@
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -20603,7 +20603,7 @@
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -20676,7 +20676,7 @@
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -20749,7 +20749,7 @@
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -20822,7 +20822,7 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -20889,7 +20889,7 @@
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -20962,7 +20962,7 @@
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -21035,7 +21035,7 @@
       </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -21104,7 +21104,7 @@
       <c r="N291" t="inlineStr"/>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -21173,7 +21173,7 @@
       <c r="N292" t="inlineStr"/>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -21242,7 +21242,7 @@
       <c r="N293" t="inlineStr"/>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -21311,7 +21311,7 @@
       <c r="N294" t="inlineStr"/>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -21384,7 +21384,7 @@
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -21453,7 +21453,7 @@
       <c r="N296" t="inlineStr"/>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -21526,7 +21526,7 @@
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -21595,7 +21595,7 @@
       <c r="N298" t="inlineStr"/>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -21664,7 +21664,7 @@
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -21733,7 +21733,7 @@
       <c r="N300" t="inlineStr"/>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -21802,7 +21802,7 @@
       <c r="N301" t="inlineStr"/>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -21871,7 +21871,7 @@
       <c r="N302" t="inlineStr"/>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -21940,7 +21940,7 @@
       <c r="N303" t="inlineStr"/>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -22009,7 +22009,7 @@
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -22078,7 +22078,7 @@
       <c r="N305" t="inlineStr"/>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -22147,7 +22147,7 @@
       <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -22216,7 +22216,7 @@
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -22285,7 +22285,7 @@
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -22358,7 +22358,7 @@
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -22429,7 +22429,7 @@
       </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -22498,7 +22498,7 @@
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -22571,7 +22571,7 @@
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -22640,7 +22640,7 @@
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -22707,7 +22707,7 @@
       <c r="N314" t="inlineStr"/>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -22780,7 +22780,7 @@
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -22849,7 +22849,7 @@
       <c r="N316" t="inlineStr"/>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -22922,7 +22922,7 @@
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -22995,7 +22995,7 @@
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -23064,7 +23064,7 @@
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -23137,7 +23137,7 @@
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -23206,7 +23206,7 @@
       <c r="N321" t="inlineStr"/>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -23275,7 +23275,7 @@
       <c r="N322" t="inlineStr"/>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -23348,7 +23348,7 @@
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -23417,7 +23417,7 @@
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -23486,7 +23486,7 @@
       <c r="N325" t="inlineStr"/>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -23559,7 +23559,7 @@
       </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -23628,7 +23628,7 @@
       <c r="N327" t="inlineStr"/>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -23697,7 +23697,7 @@
       <c r="N328" t="inlineStr"/>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -23766,7 +23766,7 @@
       <c r="N329" t="inlineStr"/>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -23835,7 +23835,7 @@
       <c r="N330" t="inlineStr"/>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -23904,7 +23904,7 @@
       <c r="N331" t="inlineStr"/>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -23973,7 +23973,7 @@
       <c r="N332" t="inlineStr"/>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -24042,7 +24042,7 @@
       <c r="N333" t="inlineStr"/>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -24111,7 +24111,7 @@
       <c r="N334" t="inlineStr"/>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -24180,7 +24180,7 @@
       <c r="N335" t="inlineStr"/>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -24251,7 +24251,7 @@
       </c>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -24320,7 +24320,7 @@
       <c r="N337" t="inlineStr"/>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -24387,7 +24387,7 @@
       <c r="N338" t="inlineStr"/>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -24454,7 +24454,7 @@
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -24527,7 +24527,7 @@
       </c>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -24600,7 +24600,7 @@
       </c>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -24673,7 +24673,7 @@
       </c>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -24742,7 +24742,7 @@
       <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -24815,7 +24815,7 @@
       </c>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -24884,7 +24884,7 @@
       <c r="N345" t="inlineStr"/>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -24953,7 +24953,7 @@
       <c r="N346" t="inlineStr"/>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -25022,7 +25022,7 @@
       <c r="N347" t="inlineStr"/>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -25091,7 +25091,7 @@
       <c r="N348" t="inlineStr"/>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -25160,7 +25160,7 @@
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -25233,7 +25233,7 @@
       </c>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -25302,7 +25302,7 @@
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -25369,7 +25369,7 @@
       <c r="N352" t="inlineStr"/>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -25442,7 +25442,7 @@
       </c>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -25511,7 +25511,7 @@
       <c r="N354" t="inlineStr"/>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -25584,7 +25584,7 @@
       </c>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -25657,7 +25657,7 @@
       </c>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -25726,7 +25726,7 @@
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -25795,7 +25795,7 @@
       <c r="N358" t="inlineStr"/>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -25864,7 +25864,7 @@
       <c r="N359" t="inlineStr"/>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -25937,7 +25937,7 @@
       </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -26006,7 +26006,7 @@
       <c r="N361" t="inlineStr"/>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -26075,7 +26075,7 @@
       <c r="N362" t="inlineStr"/>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -26144,7 +26144,7 @@
       <c r="N363" t="inlineStr"/>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -26213,7 +26213,7 @@
       <c r="N364" t="inlineStr"/>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -26280,7 +26280,7 @@
       <c r="N365" t="inlineStr"/>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -26349,7 +26349,7 @@
       <c r="N366" t="inlineStr"/>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -26422,7 +26422,7 @@
       </c>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -26491,7 +26491,7 @@
       <c r="N368" t="inlineStr"/>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -26562,7 +26562,7 @@
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -26635,7 +26635,7 @@
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -26708,7 +26708,7 @@
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -26775,7 +26775,7 @@
       <c r="N372" t="inlineStr"/>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -26846,7 +26846,7 @@
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -26919,7 +26919,7 @@
       </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -26988,7 +26988,7 @@
       <c r="N375" t="inlineStr"/>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -27061,7 +27061,7 @@
       </c>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -27134,7 +27134,7 @@
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -27203,7 +27203,7 @@
       <c r="N378" t="inlineStr"/>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -27272,7 +27272,7 @@
       <c r="N379" t="inlineStr"/>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -27339,7 +27339,7 @@
       <c r="N380" t="inlineStr"/>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -27408,7 +27408,7 @@
       <c r="N381" t="inlineStr"/>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -27481,7 +27481,7 @@
       </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -27550,7 +27550,7 @@
       <c r="N383" t="inlineStr"/>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -27617,7 +27617,7 @@
       <c r="N384" t="inlineStr"/>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -27686,7 +27686,7 @@
       <c r="N385" t="inlineStr"/>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -27759,7 +27759,7 @@
       </c>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -27826,7 +27826,7 @@
       <c r="N387" t="inlineStr"/>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -27895,7 +27895,7 @@
       <c r="N388" t="inlineStr"/>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -27964,7 +27964,7 @@
       <c r="N389" t="inlineStr"/>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -28033,7 +28033,7 @@
       <c r="N390" t="inlineStr"/>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -28102,7 +28102,7 @@
       <c r="N391" t="inlineStr"/>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -28171,7 +28171,7 @@
       <c r="N392" t="inlineStr"/>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
@@ -28238,7 +28238,7 @@
       <c r="N393" t="inlineStr"/>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2023-01-28 06:49:37</t>
+          <t>2023-01-28 12:54:46</t>
         </is>
       </c>
     </row>
